--- a/Project_V/Assets/ExcelFiles/dialogue_char.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialogue_char.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57875FD9-4125-45D9-B300-17BC859A3EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812A81E7-63A7-4851-A5A4-E8CD19A29CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
@@ -1110,7 +1110,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
